--- a/biology/Zoologie/Penthetria_claripennis/Penthetria_claripennis.xlsx
+++ b/biology/Zoologie/Penthetria_claripennis/Penthetria_claripennis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plecia claripennis, Plecia difficilis, Plecia graciosa, Plecia varia, Plecia variegata
 Penthetria claripennis est une espèce fossile de mouches de la famille des Bibionidae (les « mouches de Saint-Marc » ou « mouches noires »).
@@ -512,89 +524,273 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Penthetria claripennis est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le protonyme Plecia claripennis[1],[2]. 
-Fossiles
-Cet holotype R 864 ♀, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel)[1].
-Parmi les synonymes, il y a donc aussi de nombreux cotypes de même provenance dont R 984 ♂ (Plecia variegata), R 874 ♂ (Plecia varia), R 625 ♂ (Plecia difficilis), R 979 ♂ (Plecia graciosa)[3]. 
-Reclassement
-En 2017, cette espèce, classée initialement dans le genre Plecia, a été reclassée dans le genre Penthetria par John Skartveit et André Nel[4].
-Synonymes
-Cette espèce a désormais cinq synonymes[2],[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Penthetria claripennis est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le protonyme Plecia claripennis,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Penthetria_claripennis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_claripennis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet holotype R 864 ♀, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel).
+Parmi les synonymes, il y a donc aussi de nombreux cotypes de même provenance dont R 984 ♂ (Plecia variegata), R 874 ♂ (Plecia varia), R 625 ♂ (Plecia difficilis), R 979 ♂ (Plecia graciosa). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Penthetria_claripennis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_claripennis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reclassement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, cette espèce, classée initialement dans le genre Plecia, a été reclassée dans le genre Penthetria par John Skartveit et André Nel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Penthetria_claripennis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_claripennis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a désormais cinq synonymes, :
 †Plecia claripennis Théobald, 1937
 †Plecia difficilis Théobald, 1937
 †Plecia graciosa Théobald, 1937
 †Plecia varia Théobald, 1937
 †Plecia variegata Théobald, 1937
-Étymologie
-L'épithète spécifique claripennis signifie en latin « plumes brillantes ».
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Penthetria_claripennis</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Penthetria_claripennis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique claripennis signifie en latin « plumes brillantes ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Penthetria_claripennis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_claripennis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 2] :
-« Insecte de teinte noirâtre, à ailes claires dépassant longuement l'abdomen. Tête arrondie, deux gros yeux non contigus, fragment d'antennes cordiformes. Thorax gros, renflé en bouclier sur le dos. Abdomen de forme ovale, atténué à l'extrémité, le dernier segment porte les appendices génitaux. Pattes velues, courtes. Ailes dépassant longuement l'abdomen, teinte claire, nervation de Plecia très nette (v. fig.). »[1].
-Dimensions
-La longueur totale du corps est de 7 mm ; la longueur de la tête 0,75 mm ; la longueur du thorax 2,25 mm pour une largeur de 2 mm ; la longueur de l'abdomen 4 mm pour une largeur de 1,75 mm ; la longueur des ailes 8,5 mm[1].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 2] :
+« Insecte de teinte noirâtre, à ailes claires dépassant longuement l'abdomen. Tête arrondie, deux gros yeux non contigus, fragment d'antennes cordiformes. Thorax gros, renflé en bouclier sur le dos. Abdomen de forme ovale, atténué à l'extrémité, le dernier segment porte les appendices génitaux. Pattes velues, courtes. Ailes dépassant longuement l'abdomen, teinte claire, nervation de Plecia très nette (v. fig.). ».
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Penthetria_claripennis</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Penthetria_claripennis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale du corps est de 7 mm ; la longueur de la tête 0,75 mm ; la longueur du thorax 2,25 mm pour une largeur de 2 mm ; la longueur de l'abdomen 4 mm pour une largeur de 1,75 mm ; la longueur des ailes 8,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Penthetria_claripennis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_claripennis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Plecia est le groupe caractéristique de la station et vivait sur place [6], ce qui correspondait à une région chaude[7].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Plecia est le groupe caractéristique de la station et vivait sur place , ce qui correspondait à une région chaude.
 </t>
         </is>
       </c>
